--- a/MAC1-122.xlsx
+++ b/MAC1-122.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
-    <sheet name="ปัจจุบัน (10-6-2559)" sheetId="2" r:id="rId2"/>
+    <sheet name="ปัจจุบัน (9-6-2559)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1684,10 +1684,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2343,10 +2343,10 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="7"/>
       <c r="D32" t="s">
         <v>388</v>
       </c>
@@ -4489,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
@@ -4785,7 +4785,7 @@
       <c r="B32" t="s">
         <v>476</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" t="s">
         <v>478</v>
       </c>

--- a/MAC1-122.xlsx
+++ b/MAC1-122.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -4489,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,6 +4525,9 @@
       <c r="B2" t="s">
         <v>451</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4548,6 +4551,9 @@
       <c r="D5" t="s">
         <v>453</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4562,6 +4568,9 @@
       <c r="D6" s="5" t="s">
         <v>320</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4570,6 +4579,9 @@
       <c r="B7" t="s">
         <v>454</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4587,6 +4599,9 @@
       <c r="D9" t="s">
         <v>458</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4598,6 +4613,9 @@
       <c r="D10" t="s">
         <v>458</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4609,6 +4627,9 @@
       <c r="D11" t="s">
         <v>453</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4629,6 +4650,9 @@
       <c r="B14" t="s">
         <v>459</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4643,6 +4667,9 @@
       <c r="D15" t="s">
         <v>453</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4650,29 +4677,35 @@
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4685,20 +4718,23 @@
       <c r="D20" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4708,8 +4744,11 @@
       <c r="C23" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4719,32 +4758,35 @@
       <c r="D24" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4757,8 +4799,11 @@
       <c r="D29" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4771,14 +4816,17 @@
       <c r="D30" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4789,8 +4837,11 @@
       <c r="D32" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4800,32 +4851,35 @@
       <c r="D33" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -4835,8 +4889,11 @@
       <c r="D38" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4846,8 +4903,11 @@
       <c r="D39" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4857,16 +4917,22 @@
       <c r="D40" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4876,146 +4942,158 @@
       <c r="D42" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -5028,14 +5106,17 @@
       <c r="D65" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -5048,8 +5129,11 @@
       <c r="D67" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -5062,14 +5146,17 @@
       <c r="D68" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -5082,8 +5169,11 @@
       <c r="D70" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -5096,8 +5186,11 @@
       <c r="D71" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -5110,26 +5203,29 @@
       <c r="D72" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -5139,8 +5235,11 @@
       <c r="D76" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -5150,8 +5249,11 @@
       <c r="D77" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -5161,8 +5263,11 @@
       <c r="D78" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5172,14 +5277,17 @@
       <c r="D79" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -5189,8 +5297,11 @@
       <c r="D81" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -5200,20 +5311,23 @@
       <c r="D82" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -5226,8 +5340,11 @@
       <c r="D85" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -5240,62 +5357,65 @@
       <c r="D86" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5308,8 +5428,11 @@
       <c r="D96" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -5319,68 +5442,80 @@
       <c r="D97" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -5393,8 +5528,11 @@
       <c r="D107" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -5402,25 +5540,25 @@
         <v>524</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5432,6 +5570,9 @@
       </c>
       <c r="D112" t="s">
         <v>323</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5447,6 +5588,9 @@
       <c r="D113" t="s">
         <v>531</v>
       </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -5467,6 +5611,9 @@
       <c r="D115" s="5" t="s">
         <v>535</v>
       </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -5480,6 +5627,9 @@
       </c>
       <c r="D116" s="5" t="s">
         <v>536</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">

--- a/MAC1-122.xlsx
+++ b/MAC1-122.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
     <sheet name="ปัจจุบัน (9-6-2559)" sheetId="2" r:id="rId2"/>
+    <sheet name="ปัจจุบัน (10-6-2559)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="681">
   <si>
     <t>IP Address</t>
   </si>
@@ -1636,6 +1637,438 @@
   </si>
   <si>
     <t>hp color LaserJet cm2320nf (XEROX CORPORATION)</t>
+  </si>
+  <si>
+    <t>00:1E:4F:49:B3:F7</t>
+  </si>
+  <si>
+    <t>CIH5109</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:28:F2</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:32:E2</t>
+  </si>
+  <si>
+    <t>ILR581540</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:FF</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CB:CF,30:CD:A7:14:60:BB</t>
+  </si>
+  <si>
+    <t>CDA5401,SEC30CDA71460BB</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard Company,Samsung Electronics ITS, Printer division</t>
+  </si>
+  <si>
+    <t>B0:83:FE:97:C6:D1</t>
+  </si>
+  <si>
+    <t>OPAC581511</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BC:AD</t>
+  </si>
+  <si>
+    <t>CAR_IIC006</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:E8</t>
+  </si>
+  <si>
+    <t>Micro-Star INT'L CO., LTD</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:28:34</t>
+  </si>
+  <si>
+    <t>ILR1255</t>
+  </si>
+  <si>
+    <t>F4:CE:46:48:B4:3A</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:B0:0E</t>
+  </si>
+  <si>
+    <t>CAR_CIR16</t>
+  </si>
+  <si>
+    <t>40:6C:8F:19:AC:41</t>
+  </si>
+  <si>
+    <t>Apple, Inc.</t>
+  </si>
+  <si>
+    <t>A4:BA:DB:FD:ED:82</t>
+  </si>
+  <si>
+    <t>DELLVOTRO62S</t>
+  </si>
+  <si>
+    <t>D8:CB:8A:7F:18:E5</t>
+  </si>
+  <si>
+    <t>DESKTOP-DDK4USE</t>
+  </si>
+  <si>
+    <t>A4:1F:72:79:43:0A</t>
+  </si>
+  <si>
+    <t>COM-01</t>
+  </si>
+  <si>
+    <t>B0:83:FE:6D:1E:FC</t>
+  </si>
+  <si>
+    <t>ILR581571</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:28</t>
+  </si>
+  <si>
+    <t>IIC581551</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BF:63</t>
+  </si>
+  <si>
+    <t>OPAC-0908</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:81</t>
+  </si>
+  <si>
+    <t>USER-PC</t>
+  </si>
+  <si>
+    <t>00:21:70:66:57:81</t>
+  </si>
+  <si>
+    <t>OPAC5504</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2A:77</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>18:A9:05:C4:B6:FD</t>
+  </si>
+  <si>
+    <t>40:6C:8F:16:07:DB</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:13:FF</t>
+  </si>
+  <si>
+    <t>ILR1623</t>
+  </si>
+  <si>
+    <t>00:1A:4B:3D:D2:A2</t>
+  </si>
+  <si>
+    <t>40:6C:8F:15:FB:5F,00:A0:98:9E:BD:1C</t>
+  </si>
+  <si>
+    <t>IMAC-15FB5F</t>
+  </si>
+  <si>
+    <t>Apple, Inc.,NetApp</t>
+  </si>
+  <si>
+    <t>6C:62:6D:9D:BC:98</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:62</t>
+  </si>
+  <si>
+    <t>CDA581535</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:A1:79</t>
+  </si>
+  <si>
+    <t>Wistron InfoComm(ZhongShan) Corporation</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:29:2F</t>
+  </si>
+  <si>
+    <t>00:25:90:73:27:69</t>
+  </si>
+  <si>
+    <t>JULAEP</t>
+  </si>
+  <si>
+    <t>Super Micro Computer, Inc.</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:2C:14</t>
+  </si>
+  <si>
+    <t>CMD581544</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:26:75</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>B0:83:FE:6D:1F:63</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:8E</t>
+  </si>
+  <si>
+    <t>IK-PC</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:41</t>
+  </si>
+  <si>
+    <t>IIC581550</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BC:B2</t>
+  </si>
+  <si>
+    <t>IRM-CYBERZONE-5</t>
+  </si>
+  <si>
+    <t>38:C9:86:42:61:4C</t>
+  </si>
+  <si>
+    <t>APPLES-IMAC</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:1B</t>
+  </si>
+  <si>
+    <t>CDL581554</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:9E:E5</t>
+  </si>
+  <si>
+    <t>SO_LENOVO5705</t>
+  </si>
+  <si>
+    <t>84:8F:69:C8:8D:46</t>
+  </si>
+  <si>
+    <t>00:21:97:C3:7C:F1</t>
+  </si>
+  <si>
+    <t>ITA01040</t>
+  </si>
+  <si>
+    <t>ELITEGROUP COMPUTER SYSTEM</t>
+  </si>
+  <si>
+    <t>3C:07:54:7D:FC:A7</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:36:07</t>
+  </si>
+  <si>
+    <t>CDL581557</t>
+  </si>
+  <si>
+    <t>C8:2A:14:0D:95:E5</t>
+  </si>
+  <si>
+    <t>ARTMAC3</t>
+  </si>
+  <si>
+    <t>Apple, Inc</t>
+  </si>
+  <si>
+    <t>00:1D:50:10:2E:08</t>
+  </si>
+  <si>
+    <t>A4:1F:72:79:4B:1A</t>
+  </si>
+  <si>
+    <t>COM-03</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:A1:62</t>
+  </si>
+  <si>
+    <t>SO_LENOVO5704</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:33:7F</t>
+  </si>
+  <si>
+    <t>CMD581543</t>
+  </si>
+  <si>
+    <t>00:26:55:42:2E:74</t>
+  </si>
+  <si>
+    <t>OPAC_0912</t>
+  </si>
+  <si>
+    <t>A2:F5:FD:65:80:71, 86:C5:30:5C:3A:F2</t>
+  </si>
+  <si>
+    <t>ADM5402</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:C8:3B</t>
+  </si>
+  <si>
+    <t>ILR5406</t>
+  </si>
+  <si>
+    <t>CIR001</t>
+  </si>
+  <si>
+    <t>18:03:73:4C:70:40</t>
+  </si>
+  <si>
+    <t>IRM5504</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:08</t>
+  </si>
+  <si>
+    <t>CAR_CDA5504</t>
+  </si>
+  <si>
+    <t>00:1D:92:22:52:FC</t>
+  </si>
+  <si>
+    <t>00:26:55:43:E0:F3</t>
+  </si>
+  <si>
+    <t>RSS0729</t>
+  </si>
+  <si>
+    <t>OPAC5502</t>
+  </si>
+  <si>
+    <t>CMD5218</t>
+  </si>
+  <si>
+    <t>00:1D:92:22:52:80</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:2A:AB</t>
+  </si>
+  <si>
+    <t>IRM591622</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:5E</t>
+  </si>
+  <si>
+    <t>00:26:55:42:30:05</t>
+  </si>
+  <si>
+    <t>CDL5249</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:21:1F</t>
+  </si>
+  <si>
+    <t>CDA1617</t>
+  </si>
+  <si>
+    <t>40:6C:8F:1A:07:ED</t>
+  </si>
+  <si>
+    <t>KENGS-IMAC</t>
+  </si>
+  <si>
+    <t>00:02:65:14:10:98</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:16</t>
+  </si>
+  <si>
+    <t>CIR19</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:AA</t>
+  </si>
+  <si>
+    <t>ILR581541</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:40</t>
+  </si>
+  <si>
+    <t>CIR55247</t>
+  </si>
+  <si>
+    <t>00:1E:4F:49:B9:59</t>
+  </si>
+  <si>
+    <t>AMD14-51</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:25:97</t>
+  </si>
+  <si>
+    <t>CAR_CDA5506</t>
+  </si>
+  <si>
+    <t>00:21:70:66:39:8F</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CD:46</t>
+  </si>
+  <si>
+    <t>TIC5410</t>
+  </si>
+  <si>
+    <t>00:21:70:66:59:5C</t>
+  </si>
+  <si>
+    <t>00:21:70:66:30:C8</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:80</t>
+  </si>
+  <si>
+    <t>CDL581553</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CD:4A</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:6A</t>
+  </si>
+  <si>
+    <t>CDL581555</t>
+  </si>
+  <si>
+    <t>00:21:70:66:59:79</t>
+  </si>
+  <si>
+    <t>08:00:37:BC:5D:64</t>
+  </si>
+  <si>
+    <t>FXBC5D64</t>
+  </si>
+  <si>
+    <t>00:00:AA:E2:ED:1D</t>
+  </si>
+  <si>
+    <t>NPIC2D595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPINETIX SA </t>
   </si>
 </sst>
 </file>
@@ -4489,7 +4922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+    <sheetView topLeftCell="B103" workbookViewId="0">
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
@@ -7149,4 +7582,2793 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>635</v>
+      </c>
+      <c r="C25" t="s">
+        <v>636</v>
+      </c>
+      <c r="D25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>639</v>
+      </c>
+      <c r="D31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>640</v>
+      </c>
+      <c r="C34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>481</v>
+      </c>
+      <c r="D39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" t="s">
+        <v>643</v>
+      </c>
+      <c r="D40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>484</v>
+      </c>
+      <c r="D42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>647</v>
+      </c>
+      <c r="D48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>648</v>
+      </c>
+      <c r="C51" t="s">
+        <v>649</v>
+      </c>
+      <c r="D51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>650</v>
+      </c>
+      <c r="C57" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>652</v>
+      </c>
+      <c r="C61" t="s">
+        <v>653</v>
+      </c>
+      <c r="D61" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>654</v>
+      </c>
+      <c r="D64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>655</v>
+      </c>
+      <c r="D65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" t="s">
+        <v>495</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>678</v>
+      </c>
+      <c r="C69" t="s">
+        <v>656</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>679</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>657</v>
+      </c>
+      <c r="C72" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>659</v>
+      </c>
+      <c r="C73" t="s">
+        <v>660</v>
+      </c>
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>661</v>
+      </c>
+      <c r="C74" t="s">
+        <v>662</v>
+      </c>
+      <c r="D74" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>663</v>
+      </c>
+      <c r="C79" t="s">
+        <v>664</v>
+      </c>
+      <c r="D79" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>665</v>
+      </c>
+      <c r="D80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>666</v>
+      </c>
+      <c r="C81" t="s">
+        <v>667</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>668</v>
+      </c>
+      <c r="D82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>669</v>
+      </c>
+      <c r="D83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>672</v>
+      </c>
+      <c r="C87" t="s">
+        <v>525</v>
+      </c>
+      <c r="D87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>673</v>
+      </c>
+      <c r="C90" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>516</v>
+      </c>
+      <c r="C96" t="s">
+        <v>518</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>523</v>
+      </c>
+      <c r="C107" t="s">
+        <v>525</v>
+      </c>
+      <c r="D107" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>527</v>
+      </c>
+      <c r="C112" t="s">
+        <v>529</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>676</v>
+      </c>
+      <c r="C114" t="s">
+        <v>677</v>
+      </c>
+      <c r="D114" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>532</v>
+      </c>
+      <c r="C115" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>534</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D122" t="s">
+        <v>458</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>543</v>
+      </c>
+      <c r="C134" t="s">
+        <v>544</v>
+      </c>
+      <c r="D134" t="s">
+        <v>545</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>546</v>
+      </c>
+      <c r="C136" t="s">
+        <v>547</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>548</v>
+      </c>
+      <c r="C137" t="s">
+        <v>549</v>
+      </c>
+      <c r="D137" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>550</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" t="s">
+        <v>551</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>552</v>
+      </c>
+      <c r="C142" t="s">
+        <v>553</v>
+      </c>
+      <c r="D142" t="s">
+        <v>453</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>555</v>
+      </c>
+      <c r="C144" t="s">
+        <v>556</v>
+      </c>
+      <c r="D144" t="s">
+        <v>551</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>557</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>559</v>
+      </c>
+      <c r="C147" t="s">
+        <v>560</v>
+      </c>
+      <c r="D147" t="s">
+        <v>458</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>561</v>
+      </c>
+      <c r="C150" t="s">
+        <v>562</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>563</v>
+      </c>
+      <c r="C152" t="s">
+        <v>564</v>
+      </c>
+      <c r="D152" t="s">
+        <v>458</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>565</v>
+      </c>
+      <c r="C159" t="s">
+        <v>566</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>567</v>
+      </c>
+      <c r="C172" t="s">
+        <v>568</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>569</v>
+      </c>
+      <c r="C174" t="s">
+        <v>570</v>
+      </c>
+      <c r="D174" t="s">
+        <v>323</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>571</v>
+      </c>
+      <c r="C175" t="s">
+        <v>572</v>
+      </c>
+      <c r="D175" t="s">
+        <v>551</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>573</v>
+      </c>
+      <c r="C176" t="s">
+        <v>574</v>
+      </c>
+      <c r="D176" t="s">
+        <v>453</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>575</v>
+      </c>
+      <c r="C178" t="s">
+        <v>576</v>
+      </c>
+      <c r="D178" t="s">
+        <v>453</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>577</v>
+      </c>
+      <c r="D179" t="s">
+        <v>323</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>578</v>
+      </c>
+      <c r="D182" t="s">
+        <v>558</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>579</v>
+      </c>
+      <c r="C183" t="s">
+        <v>580</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>581</v>
+      </c>
+      <c r="D186" t="s">
+        <v>323</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>582</v>
+      </c>
+      <c r="C190" t="s">
+        <v>583</v>
+      </c>
+      <c r="D190" t="s">
+        <v>584</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>585</v>
+      </c>
+      <c r="D191" t="s">
+        <v>551</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>586</v>
+      </c>
+      <c r="C192" t="s">
+        <v>587</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>588</v>
+      </c>
+      <c r="D193" t="s">
+        <v>589</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>590</v>
+      </c>
+      <c r="D197" t="s">
+        <v>453</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>591</v>
+      </c>
+      <c r="C198" t="s">
+        <v>592</v>
+      </c>
+      <c r="D198" t="s">
+        <v>593</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>594</v>
+      </c>
+      <c r="C200" t="s">
+        <v>595</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>596</v>
+      </c>
+      <c r="C202" t="s">
+        <v>597</v>
+      </c>
+      <c r="D202" t="s">
+        <v>453</v>
+      </c>
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>598</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>599</v>
+      </c>
+      <c r="C207" t="s">
+        <v>600</v>
+      </c>
+      <c r="D207" t="s">
+        <v>551</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>601</v>
+      </c>
+      <c r="C212" t="s">
+        <v>602</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>603</v>
+      </c>
+      <c r="C216" t="s">
+        <v>604</v>
+      </c>
+      <c r="D216" t="s">
+        <v>323</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>605</v>
+      </c>
+      <c r="C219" t="s">
+        <v>606</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>607</v>
+      </c>
+      <c r="C220" t="s">
+        <v>608</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>609</v>
+      </c>
+      <c r="C221" t="s">
+        <v>610</v>
+      </c>
+      <c r="D221" t="s">
+        <v>589</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>611</v>
+      </c>
+      <c r="C222" t="s">
+        <v>458</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>612</v>
+      </c>
+      <c r="C223" t="s">
+        <v>613</v>
+      </c>
+      <c r="D223" t="s">
+        <v>614</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" t="s">
+        <v>558</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>616</v>
+      </c>
+      <c r="C229" t="s">
+        <v>617</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>618</v>
+      </c>
+      <c r="C230" t="s">
+        <v>619</v>
+      </c>
+      <c r="D230" t="s">
+        <v>620</v>
+      </c>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>621</v>
+      </c>
+      <c r="D231" t="s">
+        <v>507</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>622</v>
+      </c>
+      <c r="C233" t="s">
+        <v>623</v>
+      </c>
+      <c r="D233" t="s">
+        <v>458</v>
+      </c>
+      <c r="E233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>624</v>
+      </c>
+      <c r="C234" t="s">
+        <v>625</v>
+      </c>
+      <c r="D234" t="s">
+        <v>589</v>
+      </c>
+      <c r="E234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>626</v>
+      </c>
+      <c r="C235" t="s">
+        <v>627</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s">
+        <v>628</v>
+      </c>
+      <c r="C236" t="s">
+        <v>629</v>
+      </c>
+      <c r="D236" t="s">
+        <v>323</v>
+      </c>
+      <c r="E236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s">
+        <v>347</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" t="s">
+        <v>354</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>